--- a/gameData/shared/ProductionTechs.xlsx
+++ b/gameData/shared/ProductionTechs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="4540" windowWidth="27520" windowHeight="14540" tabRatio="883"/>
+    <workbookView xWindow="5460" yWindow="22380" windowWidth="27520" windowHeight="14540" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="productionTechs" sheetId="27" r:id="rId1"/>
@@ -264,7 +264,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -313,6 +313,106 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -326,7 +426,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="144">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -351,6 +451,56 @@
     <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -368,6 +518,56 @@
     <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -820,7 +1020,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -866,13 +1066,13 @@
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -883,16 +1083,16 @@
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>0.05</v>
@@ -900,13 +1100,13 @@
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -917,13 +1117,13 @@
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -934,7 +1134,7 @@
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -951,13 +1151,13 @@
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -968,7 +1168,7 @@
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -985,13 +1185,13 @@
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1002,13 +1202,13 @@
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1019,13 +1219,13 @@
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -1036,13 +1236,13 @@
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
       </c>
       <c r="C13" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -1053,13 +1253,13 @@
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -1070,13 +1270,13 @@
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
       </c>
       <c r="C15" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -1087,13 +1287,13 @@
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -1110,7 +1310,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -1127,7 +1327,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -1144,7 +1344,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>

--- a/gameData/shared/ProductionTechs.xlsx
+++ b/gameData/shared/ProductionTechs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="3780" yWindow="2480" windowWidth="27520" windowHeight="14540" tabRatio="883"/>
@@ -283,7 +283,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="190">
+  <cellStyleXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -298,6 +298,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -500,7 +506,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="190">
+  <cellStyles count="196">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -598,6 +604,9 @@
     <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="194" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -688,6 +697,9 @@
     <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1140,7 +1152,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1197,8 +1209,8 @@
       <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="6">
-        <v>0.01</v>
+      <c r="E3" s="4">
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -1214,8 +1226,8 @@
       <c r="D4" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="6">
-        <v>0.01</v>
+      <c r="E4" s="4">
+        <v>0.02</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -1231,8 +1243,8 @@
       <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="6">
-        <v>0.01</v>
+      <c r="E5" s="4">
+        <v>0.02</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -1248,8 +1260,8 @@
       <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="6">
-        <v>0.01</v>
+      <c r="E6" s="4">
+        <v>0.02</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -1265,8 +1277,8 @@
       <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="E7" s="6">
-        <v>0.01</v>
+      <c r="E7" s="4">
+        <v>0.02</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -1282,7 +1294,7 @@
       <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>0.01</v>
       </c>
     </row>
@@ -1299,7 +1311,7 @@
       <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>0.01</v>
       </c>
     </row>
@@ -1316,8 +1328,8 @@
       <c r="D10" s="6">
         <v>1</v>
       </c>
-      <c r="E10" s="6">
-        <v>0.01</v>
+      <c r="E10" s="4">
+        <v>0.02</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -1333,8 +1345,8 @@
       <c r="D11" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="6">
-        <v>0.01</v>
+      <c r="E11" s="4">
+        <v>0.02</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -1350,7 +1362,7 @@
       <c r="D12" s="6">
         <v>1</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>0.01</v>
       </c>
     </row>
@@ -1367,7 +1379,7 @@
       <c r="D13" s="6">
         <v>1</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>0.01</v>
       </c>
     </row>
@@ -1384,7 +1396,7 @@
       <c r="D14" s="6">
         <v>1</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>0.01</v>
       </c>
     </row>
@@ -1401,7 +1413,7 @@
       <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <v>0.01</v>
       </c>
     </row>
@@ -1418,8 +1430,8 @@
       <c r="D16" s="6">
         <v>1</v>
       </c>
-      <c r="E16" s="6">
-        <v>0.01</v>
+      <c r="E16" s="4">
+        <v>0.02</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
@@ -1435,8 +1447,8 @@
       <c r="D17" s="6">
         <v>1</v>
       </c>
-      <c r="E17" s="6">
-        <v>0.01</v>
+      <c r="E17" s="4">
+        <v>0.02</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
@@ -1452,8 +1464,8 @@
       <c r="D18" s="6">
         <v>1</v>
       </c>
-      <c r="E18" s="6">
-        <v>0.01</v>
+      <c r="E18" s="4">
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
@@ -1469,8 +1481,8 @@
       <c r="D19" s="6">
         <v>1</v>
       </c>
-      <c r="E19" s="6">
-        <v>0.01</v>
+      <c r="E19" s="4">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/ProductionTechs.xlsx
+++ b/gameData/shared/ProductionTechs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="2480" windowWidth="27520" windowHeight="14540" tabRatio="883"/>
+    <workbookView xWindow="1200" yWindow="5200" windowWidth="27520" windowHeight="14540" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="productionTechs" sheetId="27" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>mintedCoin</t>
+  </si>
+  <si>
+    <t>INT_academyLevel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1149,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1160,7 +1164,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1174,12 +1178,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1193,10 +1200,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1207,13 +1217,16 @@
         <v>3</v>
       </c>
       <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1226,11 +1239,14 @@
       <c r="D4" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1241,13 +1257,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1258,13 +1277,16 @@
         <v>2</v>
       </c>
       <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1275,13 +1297,16 @@
         <v>5</v>
       </c>
       <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1292,13 +1317,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1309,13 +1337,16 @@
         <v>7</v>
       </c>
       <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>14</v>
+      </c>
+      <c r="F9" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1326,13 +1357,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -1343,13 +1377,16 @@
         <v>7</v>
       </c>
       <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6">
+        <v>16</v>
+      </c>
+      <c r="F11" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -1360,13 +1397,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="6">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6">
+        <v>24</v>
+      </c>
+      <c r="F12" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1377,13 +1417,16 @@
         <v>9</v>
       </c>
       <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6">
+        <v>30</v>
+      </c>
+      <c r="F13" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1394,13 +1437,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20</v>
+      </c>
+      <c r="F14" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -1411,13 +1457,16 @@
         <v>15</v>
       </c>
       <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6">
+        <v>26</v>
+      </c>
+      <c r="F15" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1428,13 +1477,16 @@
         <v>12</v>
       </c>
       <c r="D16" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6">
+        <v>28</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1">
+    <row r="17" spans="1:6" ht="20" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -1445,13 +1497,16 @@
         <v>13</v>
       </c>
       <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6">
+        <v>18</v>
+      </c>
+      <c r="F17" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1">
+    <row r="18" spans="1:6" ht="20" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -1462,13 +1517,16 @@
         <v>14</v>
       </c>
       <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
+        <v>5</v>
+      </c>
+      <c r="E18" s="6">
+        <v>22</v>
+      </c>
+      <c r="F18" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1">
+    <row r="19" spans="1:6" ht="20" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -1479,9 +1537,12 @@
         <v>17</v>
       </c>
       <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
+        <v>5</v>
+      </c>
+      <c r="E19" s="6">
+        <v>32</v>
+      </c>
+      <c r="F19" s="4">
         <v>0.02</v>
       </c>
     </row>

--- a/gameData/shared/ProductionTechs.xlsx
+++ b/gameData/shared/ProductionTechs.xlsx
@@ -289,7 +289,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="282">
+  <cellStyleXfs count="284">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -304,6 +304,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -598,7 +600,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="282">
+  <cellStyles count="284">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -742,6 +744,7 @@
     <cellStyle name="超链接" xfId="276" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -878,6 +881,7 @@
     <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1330,7 +1334,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1597,7 +1601,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">

--- a/gameData/shared/ProductionTechs.xlsx
+++ b/gameData/shared/ProductionTechs.xlsx
@@ -289,7 +289,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="284">
+  <cellStyleXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -304,6 +304,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -600,7 +614,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="284">
+  <cellStyles count="298">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -745,6 +759,13 @@
     <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -882,6 +903,13 @@
     <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1334,7 +1362,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1400,8 +1428,8 @@
       <c r="E3" s="6">
         <v>2</v>
       </c>
-      <c r="F3" s="4">
-        <v>5.0000000000000001E-3</v>
+      <c r="F3" s="1">
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -1420,8 +1448,8 @@
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="4">
-        <v>5.0000000000000001E-3</v>
+      <c r="F4" s="1">
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -1460,8 +1488,8 @@
       <c r="E6" s="6">
         <v>4</v>
       </c>
-      <c r="F6" s="4">
-        <v>5.0000000000000001E-3</v>
+      <c r="F6" s="1">
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -1480,8 +1508,8 @@
       <c r="E7" s="6">
         <v>8</v>
       </c>
-      <c r="F7" s="4">
-        <v>5.0000000000000001E-3</v>
+      <c r="F7" s="1">
+        <v>0.01</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -1660,8 +1688,8 @@
       <c r="E16" s="1">
         <v>22</v>
       </c>
-      <c r="F16" s="4">
-        <v>5.0000000000000001E-3</v>
+      <c r="F16" s="1">
+        <v>0.01</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20" customHeight="1">
@@ -1720,8 +1748,8 @@
       <c r="E19" s="1">
         <v>32</v>
       </c>
-      <c r="F19" s="4">
-        <v>5.0000000000000001E-3</v>
+      <c r="F19" s="1">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
